--- a/excel/SaldoProdPJ.xlsx
+++ b/excel/SaldoProdPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9255,82 +9255,74 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>59796007</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ACCFR-BR-05C01</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ACEM BOV. C/ OSSO PORC. FRISA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
+          <t>PRODUTO NÃO ADICIONADO</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>4.23</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04/11/2023</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>22</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>#2853# FRIS 1201</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="N140" t="n">
+        <v>11</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>59797801</v>
+        <v>59236723</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ACCFR-BR-05C03</t>
+          <t>TBOFR-BR-05C02</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ACEM BOV. C/ OSSO INT CG NV FRISA</t>
+          <t>TIBONE BOV. CG. PORC. SL FRISA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9339,17 +9331,17 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>267.62</v>
+        <v>53.47</v>
       </c>
       <c r="G141" t="n">
-        <v>281.62</v>
+        <v>58.195</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/11/2023</t>
+          <t xml:space="preserve"> 04/11/2023</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -9358,7 +9350,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
+          <t>Data:08/11/2021 NFE:000070702-</t>
         </is>
       </c>
       <c r="L141" t="inlineStr"/>
@@ -9367,7 +9359,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>#2853# FRIS 1201</t>
+          <t>#2757# FRIS 1521</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -9387,16 +9379,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>60194802</v>
+        <v>59796006</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ACCFU-BR-05C01</t>
+          <t>TBOFR-BR-05C02</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ACEM C/OSSO CG FRIGOSUL</t>
+          <t>TIBONE BOV. CG. PORC. SL FRISA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9405,17 +9397,17 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F142" t="n">
-        <v>182.072</v>
+        <v>228.47</v>
       </c>
       <c r="G142" t="n">
-        <v>193.963</v>
+        <v>249.395</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24/08/2023</t>
+          <t xml:space="preserve"> 15/12/2023</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -9424,14 +9416,18 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Data:05/09/2022 NFE:000076414-</t>
+          <t>Data:19/04/2022 NFE:000073775-</t>
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>#2853# FRIS 1201</t>
+        </is>
+      </c>
       <c r="O142" t="n">
         <v>0</v>
       </c>
@@ -9449,49 +9445,49 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>60306710</v>
+        <v>57612301</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ALCFC-PY-03C01</t>
+          <t>SUD-8001</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALCATRA COMPLETA CG FRIGOCHACO </t>
+          <t>CAIXA ISOPOR 350X285X15</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11</v>
+        <v>1580</v>
       </c>
       <c r="F143" t="n">
-        <v>154.7</v>
+        <v>15.8</v>
       </c>
       <c r="G143" t="n">
-        <v>163.5</v>
+        <v>17.38</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23/08/2024</t>
+          <t xml:space="preserve">INDETERM. </t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077170-</t>
+          <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
@@ -9510,50 +9506,54 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>60382901</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>60325701 *</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ATIBS-BR-04C01</t>
+          <t>SUD-8001</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG - BASSI</t>
+          <t>CAIXA ISOPOR 350X285X15</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="F144" t="n">
-        <v>200.93</v>
+        <v>20</v>
       </c>
       <c r="G144" t="n">
-        <v>211.79</v>
+        <v>22</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14/10/2023</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>22</v>
+          <t xml:space="preserve">INDETERM. </t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Data:04/11/2022 NFE:000077747-</t>
+          <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
@@ -9573,49 +9573,49 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>60311307</v>
+        <v>57612302</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ATIFR-BR-05C02</t>
+          <t>SUD-8002</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV. CG. SL. FRISA</t>
+          <t>CAIXA ISOPOR 145X265X15</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33</v>
+        <v>1562</v>
       </c>
       <c r="F145" t="n">
-        <v>260.75</v>
+        <v>15.62</v>
       </c>
       <c r="G145" t="n">
-        <v>282.86</v>
+        <v>17.182</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28/09/2024</t>
+          <t xml:space="preserve">INDETERM. </t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Data:11/10/2022 NFE:000077171-</t>
+          <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
@@ -9634,50 +9634,54 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>60254210</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>60325702 *</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ATIPD-UY-07C01</t>
+          <t>SUD-8002</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ASSADO DE TIRA BOV CG VILA</t>
+          <t>CAIXA ISOPOR 145X265X15</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>2000</v>
       </c>
       <c r="F146" t="n">
-        <v>409.2</v>
+        <v>20</v>
       </c>
       <c r="G146" t="n">
-        <v>442.8</v>
+        <v>22</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27/07/2024</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>22</v>
+          <t xml:space="preserve">INDETERM. </t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Data:23/09/2022 NFE:000076764-</t>
+          <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="n">
@@ -9697,55 +9701,51 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>59353302</v>
+        <v>57612303</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CARDC-UY-06C01</t>
+          <t>SUD-8003</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CARRE FRANCES OVI CG 18/20 VP CORD CHEFE</t>
+          <t>CAIXA ISOPOR 320X145X15</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>1602</v>
       </c>
       <c r="F147" t="n">
-        <v>14.26</v>
+        <v>16.02</v>
       </c>
       <c r="G147" t="n">
-        <v>15.72</v>
+        <v>17.622</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/11/2023</t>
+          <t xml:space="preserve">INDETERM. </t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Data:10/12/2021 NFE:000071308-</t>
+          <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>#2856# JBSS 1584</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
         <v>0</v>
       </c>
@@ -9762,50 +9762,54 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>60305801</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>60325703 *</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CFRGT-AR-03C01</t>
+          <t>SUD-8003</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CORAÇAO DE FRANGO CONG 15 KG</t>
+          <t>CAIXA ISOPOR 320X145X15</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1182</v>
+        <v>2000</v>
       </c>
       <c r="F148" t="n">
-        <v>17730</v>
+        <v>20</v>
       </c>
       <c r="G148" t="n">
-        <v>18498.3</v>
+        <v>22</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30/01/2024</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>22</v>
+          <t xml:space="preserve">INDETERM. </t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Data:10/10/2022 NFE:000077109-</t>
+          <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="n">
@@ -9825,49 +9829,49 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>60243801</v>
+        <v>57611301</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CFRPO-AR-01C01</t>
+          <t>SUD-8004</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CORACAO DE FRANGO POLLOLIN CG 10X1 KG</t>
+          <t>CAIXA DE PAPELÃO CV REF SU 350X265X175</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11</v>
+        <v>2091</v>
       </c>
       <c r="F149" t="n">
-        <v>110</v>
+        <v>489.294</v>
       </c>
       <c r="G149" t="n">
-        <v>116.05</v>
+        <v>491.385</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29/01/2024</t>
+          <t xml:space="preserve"> 30/06/2050</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Data:21/09/2022 NFE:000076849-</t>
+          <t>Data:11/06/2020 NFE:000061560-</t>
         </is>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
@@ -9880,2792 +9884,6 @@
         <v>0</v>
       </c>
       <c r="R149" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>60362002 *</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>COSFR-BR-05C02</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>COSTELA BOV JANELA PORC CONG NV FRISA</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="G150" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 27/12/2023</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>22</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Data:26/10/2022 NFE:-</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>60342001</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>COSFR-BR-05C02</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>COSTELA BOV JANELA PORC CONG NV FRISA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="G151" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 28/12/2023</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>22</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Data:20/10/2022 NFE:000077309-</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="n">
-        <v>0</v>
-      </c>
-      <c r="P151" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>0</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>59796002</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>COSFR-BR-05C02</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>COSTELA BOV JANELA PORC CONG NV FRISA</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>14</v>
-      </c>
-      <c r="F152" t="n">
-        <v>198.25</v>
-      </c>
-      <c r="G152" t="n">
-        <v>214.91</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13/01/2024</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>22</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O152" t="n">
-        <v>0</v>
-      </c>
-      <c r="P152" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>0</v>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>60194812</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>COSGA-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>COSTELA BOV DIANTEIRO CG. GRAN RESERVA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>15</v>
-      </c>
-      <c r="F153" t="n">
-        <v>251.02</v>
-      </c>
-      <c r="G153" t="n">
-        <v>270.97</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24/08/2023</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>22</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Data:05/09/2022 NFE:000076414-</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="n">
-        <v>0</v>
-      </c>
-      <c r="P153" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>0</v>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>60254206</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>COSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>COSTELA BOV DIANTEIRO JANELA CG. VILA</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>183</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2171.15</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2377.94</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/07/2024</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>22</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Data:23/09/2022 NFE:000076764-</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>6</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="n">
-        <v>0</v>
-      </c>
-      <c r="P154" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>0</v>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>60194816</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>COTGA-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>COSTELA BOV. TRASEIRO CG. GRAN RESERVA</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>21</v>
-      </c>
-      <c r="F155" t="n">
-        <v>406.507</v>
-      </c>
-      <c r="G155" t="n">
-        <v>430.783</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 26/08/2023</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>22</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Data:05/09/2022 NFE:000076414-</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>0</v>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>60053003</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>FMIBC-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>44</v>
-      </c>
-      <c r="F156" t="n">
-        <v>633.377</v>
-      </c>
-      <c r="G156" t="n">
-        <v>662.0650000000001</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11/07/2023</t>
-        </is>
-      </c>
-      <c r="I156" t="n">
-        <v>22</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Data:19/07/2022 NFE:000075533-</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>2</v>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>#2840# BOAC 1374</t>
-        </is>
-      </c>
-      <c r="O156" t="n">
-        <v>0</v>
-      </c>
-      <c r="P156" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>0</v>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>60055501</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>FMIBC-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>FILE MIGNON BOV CG 1,3-1,8 KG -BOA CARNE</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>15</v>
-      </c>
-      <c r="F157" t="n">
-        <v>209.601</v>
-      </c>
-      <c r="G157" t="n">
-        <v>219.381</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11/07/2023</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>22</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Data:19/07/2022 NFE:000075533-</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>#2840# BOAC 1374</t>
-        </is>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>60306701</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>FRCFC-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>FRALDA BOV C/GORD CG FRIGOCHACO</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>14</v>
-      </c>
-      <c r="F158" t="n">
-        <v>190.55</v>
-      </c>
-      <c r="G158" t="n">
-        <v>201.75</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/09/2024</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>22</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Data:10/10/2022 NFE:000077170-</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>59774801</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>FRDCR-BR-04C01</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>FRALDA DO DIAFRAGMA BOV CG CARA PRETA</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>42.508</v>
-      </c>
-      <c r="G159" t="n">
-        <v>45.025</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/03/2024</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>22</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Data:11/04/2022 NFE:000073651-</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>#2842# CARA 1193</t>
-        </is>
-      </c>
-      <c r="O159" t="n">
-        <v>0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>0</v>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>60327316</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>FRSCP-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD CG COPAYAN</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>91</v>
-      </c>
-      <c r="F160" t="n">
-        <v>977.54</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1056.71</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/09/2024</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>22</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Data:17/10/2022 NFE:000077234-</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>2</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
-      <c r="P160" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>0</v>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>60311304</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>FRSFR-BR-05R01</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD RESF NV FRISA</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15/12/2022</t>
-        </is>
-      </c>
-      <c r="I161" t="n">
-        <v>3</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>Data:11/10/2022 NFE:000077171-</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="n">
-        <v>0</v>
-      </c>
-      <c r="P161" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>0</v>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>60221706</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>FRSLM-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORDURA CG LAS MORAS</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>104</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1392.74</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1482.18</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/07/2024</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>22</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Data:14/09/2022 NFE:000076643-</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>3</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>0</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>60221707</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>FRSLM-UY-03C02</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>FRALDA BOV ANG S/GORD CG LAS MORAS</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>63</v>
-      </c>
-      <c r="F163" t="n">
-        <v>844.6</v>
-      </c>
-      <c r="G163" t="n">
-        <v>898.78</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 21/07/2024</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>22</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Data:14/09/2022 NFE:000076643-</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>2</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="n">
-        <v>0</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>0</v>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>59826403</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD CG VILA</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>31</v>
-      </c>
-      <c r="F164" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="G164" t="n">
-        <v>506.65</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 22/02/2024</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>22</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Data:29/04/2022 NFE:000073946-</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>#2859# PAND 1100</t>
-        </is>
-      </c>
-      <c r="O164" t="n">
-        <v>0</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>60254204</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C01</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/GORD CG VILA</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>209</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2834.83</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3096.08</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 29/06/2024</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>22</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Data:23/09/2022 NFE:000076764-</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>5</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="n">
-        <v>0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>60254209</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>FRSPD-UY-07C02</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>FRALDA BOV S/ GORD PORC CG VILA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>24</v>
-      </c>
-      <c r="F166" t="n">
-        <v>356.84</v>
-      </c>
-      <c r="G166" t="n">
-        <v>385.64</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/09/2024</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>22</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Data:23/09/2022 NFE:000076764-</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>60354910</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>FRSSO-UY-01R01</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>FRALDA BOV SEM GORDURA RESF SOLIS</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>37.15</v>
-      </c>
-      <c r="G167" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/01/2023</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>3</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Data:26/10/2022 NFE:000077486-</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="n">
-        <v>0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>60315607</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>FRSSO-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>FRALDA BOV. S/ GORD. CONG. SOLIS</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>27</v>
-      </c>
-      <c r="F168" t="n">
-        <v>366.83</v>
-      </c>
-      <c r="G168" t="n">
-        <v>391.13</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12/07/2024</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>22</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Data:13/10/2022 NFE:000077184-</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="n">
-        <v>0</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>0</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>60311308</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ICFFR-BR-05C01</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>ISCA DE CONTRA FILE BOV CG</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="G169" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15/09/2024</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>22</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Data:11/10/2022 NFE:000077171-</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>0</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>60251602</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>MALBB-AR-01C01</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV. CG. BLACK BULL</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>55</v>
-      </c>
-      <c r="F170" t="n">
-        <v>827.35</v>
-      </c>
-      <c r="G170" t="n">
-        <v>879.6</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20/10/2023</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>22</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Data:28/09/2022 NFE:000076847-</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>2</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="n">
-        <v>0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>0</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>60327303</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>MALCP-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MIOLO DE ALCATRA BOV ANG CG-COPAYAN </t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>14</v>
-      </c>
-      <c r="F171" t="n">
-        <v>205</v>
-      </c>
-      <c r="G171" t="n">
-        <v>217.18</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16/09/2024</t>
-        </is>
-      </c>
-      <c r="I171" t="n">
-        <v>22</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Data:17/10/2022 NFE:000077234-</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="n">
-        <v>0</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>0</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>59928510</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>MALFC-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>MIOLO ALCATRA FRIGOCHACO CONG</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>54</v>
-      </c>
-      <c r="F172" t="n">
-        <v>773.85</v>
-      </c>
-      <c r="G172" t="n">
-        <v>817.05</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11/05/2024</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>22</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Data:20/06/2022 NFE:000075022-</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>2</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>#2850# FRIG 1224</t>
-        </is>
-      </c>
-      <c r="O172" t="n">
-        <v>0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>0</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>60055410</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>MALFC-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>MIOLO ALCATRA FRIGOCHACO CONG</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>56</v>
-      </c>
-      <c r="F173" t="n">
-        <v>794.75</v>
-      </c>
-      <c r="G173" t="n">
-        <v>839.55</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10/06/2024</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>22</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Data:21/07/2022 NFE:000075591-</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>2</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>#2851# FRIG 1266</t>
-        </is>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>60306711</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>MALFC-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>MIOLO ALCATRA FRIGOCHACO CONG</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>77</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1061.6</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23/08/2024</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>22</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Data:10/10/2022 NFE:000077170-</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>2</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="n">
-        <v>0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>0</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>60094801</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>MALGR-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV CG - GUARANI</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>85</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1982.95</v>
-      </c>
-      <c r="G175" t="n">
-        <v>2059.45</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30/12/2023</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>22</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>Data:12/08/2022 NFE:000076002-</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>2</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="n">
-        <v>0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>0</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>60317903</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>MALIF-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV CONG IFF</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>41</v>
-      </c>
-      <c r="F176" t="n">
-        <v>577.86</v>
-      </c>
-      <c r="G176" t="n">
-        <v>612.71</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11/03/2024</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>22</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>Data:13/10/2022 NFE:000077177-</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="n">
-        <v>0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>0</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>60390202</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>MALPI-AR-01R01</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV RF - PICO</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>23</v>
-      </c>
-      <c r="F177" t="n">
-        <v>288.91</v>
-      </c>
-      <c r="G177" t="n">
-        <v>309.38</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24/02/2023</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>3</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>Data:09/11/2022 NFE:000077788-</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-      <c r="O177" t="n">
-        <v>0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>0</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>60354908</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>MALSO-UY-01R01</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV RESF SOLIS</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>5</v>
-      </c>
-      <c r="F178" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="G178" t="n">
-        <v>89.34999999999999</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/01/2023</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>3</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>Data:26/10/2022 NFE:000077486-</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="n">
-        <v>0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>0</v>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>60315606</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>MALSO-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>MIOLO DE ALCATRA BOV. CONG. SOLIS</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>42</v>
-      </c>
-      <c r="F179" t="n">
-        <v>901</v>
-      </c>
-      <c r="G179" t="n">
-        <v>937.96</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 17/06/2024</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>22</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>Data:13/10/2022 NFE:000077184-</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="n">
-        <v>0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>0</v>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>60382904</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>MAMBS-BR-04C02</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV ANG CG BASSI</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>75</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1004.006</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1056.506</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18/08/2023</t>
-        </is>
-      </c>
-      <c r="I180" t="n">
-        <v>22</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>Data:04/11/2022 NFE:000077747-</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>2</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>0</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>59928506</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>MAMFC-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV CONG FRIGOCHACO</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="G181" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/05/2024</t>
-        </is>
-      </c>
-      <c r="I181" t="n">
-        <v>22</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>Data:20/06/2022 NFE:000075022-</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>#2850# FRIG 1224</t>
-        </is>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
-      <c r="P181" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>0</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>60055406</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>MAMFC-PY-03C01</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV CONG FRIGOCHACO</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="G182" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/06/2024</t>
-        </is>
-      </c>
-      <c r="I182" t="n">
-        <v>22</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>Data:21/07/2022 NFE:000075591-</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>#2851# FRIG 1266</t>
-        </is>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>60354907</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>MAMSO-UY-01R01</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV RESF SOLIS</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="G183" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/01/2023</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>3</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Data:26/10/2022 NFE:000077486-</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>0</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>60315605</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>MAMSO-UY-03C01</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>MAMINHA BOV CONG -SOLIS</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>71</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1232</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1294.48</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 17/06/2024</t>
-        </is>
-      </c>
-      <c r="I184" t="n">
-        <v>22</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Data:13/10/2022 NFE:000077184-</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>2</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>59236723</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>TBOFR-BR-05C02</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>TIBONE BOV. CG. PORC. SL FRISA</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>7</v>
-      </c>
-      <c r="F185" t="n">
-        <v>53.47</v>
-      </c>
-      <c r="G185" t="n">
-        <v>58.195</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04/11/2023</t>
-        </is>
-      </c>
-      <c r="I185" t="n">
-        <v>22</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>Data:08/11/2021 NFE:000070702-</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>#2757# FRIS 1521</t>
-        </is>
-      </c>
-      <c r="O185" t="n">
-        <v>0</v>
-      </c>
-      <c r="P185" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>0</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>59796006</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>TBOFR-BR-05C02</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>TIBONE BOV. CG. PORC. SL FRISA</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>31</v>
-      </c>
-      <c r="F186" t="n">
-        <v>228.47</v>
-      </c>
-      <c r="G186" t="n">
-        <v>249.395</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15/12/2023</t>
-        </is>
-      </c>
-      <c r="I186" t="n">
-        <v>22</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P186" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>0</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>57612301</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SUD-8001</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 350X285X15</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>1580</v>
-      </c>
-      <c r="F187" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="G187" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I187" t="n">
-        <v>3</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>Data:12/06/2020 NFE:000061560-</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>3</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="n">
-        <v>0</v>
-      </c>
-      <c r="P187" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>0</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>60325701 *</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>SUD-8001</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 350X285X15</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F188" t="n">
-        <v>20</v>
-      </c>
-      <c r="G188" t="n">
-        <v>22</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Data:17/10/2022 NFE:-</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>4</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="n">
-        <v>0</v>
-      </c>
-      <c r="P188" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q188" t="n">
-        <v>0</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>57612302</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>SUD-8002</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 145X265X15</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>1562</v>
-      </c>
-      <c r="F189" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="G189" t="n">
-        <v>17.182</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>3</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>Data:12/06/2020 NFE:000061560-</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>3</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P189" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>0</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>60325702 *</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>SUD-8002</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 145X265X15</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F190" t="n">
-        <v>20</v>
-      </c>
-      <c r="G190" t="n">
-        <v>22</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>Data:17/10/2022 NFE:-</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>4</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="n">
-        <v>0</v>
-      </c>
-      <c r="P190" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>0</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>57612303</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>SUD-8003</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 320X145X15</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>1602</v>
-      </c>
-      <c r="F191" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="G191" t="n">
-        <v>17.622</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>3</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>Data:12/06/2020 NFE:000061560-</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>4</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-      <c r="O191" t="n">
-        <v>0</v>
-      </c>
-      <c r="P191" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>0</v>
-      </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>60325703 *</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>SUD-8003</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>CAIXA ISOPOR 320X145X15</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F192" t="n">
-        <v>20</v>
-      </c>
-      <c r="G192" t="n">
-        <v>22</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDETERM. </t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>Data:17/10/2022 NFE:-</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>4</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="n">
-        <v>0</v>
-      </c>
-      <c r="P192" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>0</v>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>57611301</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>SUD-8004</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>CAIXA DE PAPELÃO CV REF SU 350X265X175</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>2091</v>
-      </c>
-      <c r="F193" t="n">
-        <v>489.294</v>
-      </c>
-      <c r="G193" t="n">
-        <v>491.385</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30/06/2050</t>
-        </is>
-      </c>
-      <c r="I193" t="n">
-        <v>3</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>Data:11/06/2020 NFE:000061560-</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>4</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="n">
-        <v>0</v>
-      </c>
-      <c r="P193" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>0</v>
-      </c>
-      <c r="R193" t="inlineStr">
         <is>
           <t>1146-SUDAMBEEF</t>
         </is>

--- a/excel/SaldoProdPJ.xlsx
+++ b/excel/SaldoProdPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,47 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Motivo</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Motivo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Referencia</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pallet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Marca</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Altura Master</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Largura Master</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Profundidade</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente</t>
         </is>
       </c>
     </row>
@@ -561,33 +526,14 @@
       <c r="I2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Data:20/12/2021 NFE:000071591-</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Data:20/12/2021 NFE:000071591-</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
           <t>#2845# FEIJ 1357</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -627,33 +573,14 @@
       <c r="I3" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Data:05/04/2022 NFE:000073477-</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Data:05/04/2022 NFE:000073477-</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
           <t>#2845# FEIJ 1357</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -693,33 +620,14 @@
       <c r="I4" t="n">
         <v>22</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Data:07/06/2022 NFE:000074842-</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Data:07/06/2022 NFE:000074842-</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
           <t>#2845# FEIJ 1357</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -759,31 +667,12 @@
       <c r="I5" t="n">
         <v>23</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Data:07/11/2022 NFE:000077748-</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -821,33 +710,14 @@
       <c r="I6" t="n">
         <v>23</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Data:30/08/2021 NFE:000069287-</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Data:30/08/2021 NFE:000069287-</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>#2742# CIPA 1316</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -887,33 +757,14 @@
       <c r="I7" t="n">
         <v>23</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Data:08/09/2021 NFE:000069504-</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Data:08/09/2021 NFE:000069504-</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>#2742# CIPA 1316</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -953,33 +804,14 @@
       <c r="I8" t="n">
         <v>23</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Data:30/08/2021 NFE:000069287-</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Data:30/08/2021 NFE:000069287-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>#2742# CIPA 1316</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1019,31 +851,12 @@
       <c r="I9" t="n">
         <v>23</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Data:26/10/2022 NFE:000077474-</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1081,33 +894,14 @@
       <c r="I10" t="n">
         <v>23</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Data:10/06/2022 NFE:000074863-</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Data:10/06/2022 NFE:000074863-</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>#2861# PESC 1300</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1147,33 +941,14 @@
       <c r="I11" t="n">
         <v>23</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Data:15/07/2019 NFE:000052770-</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Data:15/07/2019 NFE:000052770-</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>#1785# BLUE 1389</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1213,33 +988,14 @@
       <c r="I12" t="n">
         <v>23</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Data:10/06/2022 NFE:000074863-</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Data:10/06/2022 NFE:000074863-</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
           <t>#2861# PESC 1300</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1279,33 +1035,14 @@
       <c r="I13" t="n">
         <v>23</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Data:10/06/2022 NFE:000074863-</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Data:10/06/2022 NFE:000074863-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
           <t>#2861# PESC 1300</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1146 - SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1349,33 +1086,14 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Data:04/12/2018 NFE:000046362-CX. RETIRADA AMOSTRA 03/3846</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Data:04/12/2018 NFE:000046362-CX. RETIRADA AMOSTRA 03/3846</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
           <t>#1466# 1918-AV09</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1417,31 +1135,12 @@
       <c r="I15" t="n">
         <v>14</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000075994-AREA DE SEQUESTRO - FALTA DE PESO</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1481,33 +1180,14 @@
       <c r="I16" t="n">
         <v>14</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Data:26/04/2022 NFE:000073874-FALTA NO ESTOQUE - FALAR COM CLAUDIO</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Data:26/04/2022 NFE:000073874-FALTA NO ESTOQUE - FALAR COM CLAUDIO</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
           <t>#2857# LASM 1107</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -1547,31 +1227,12 @@
       <c r="I17" t="n">
         <v>22</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076847-</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1609,31 +1270,12 @@
       <c r="I18" t="n">
         <v>22</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076847-</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1671,31 +1313,12 @@
       <c r="I19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077787-</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1733,31 +1356,12 @@
       <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077787-</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,31 +1401,12 @@
           <t>15/22</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1859,31 +1444,12 @@
       <c r="I22" t="n">
         <v>22</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1921,31 +1487,12 @@
       <c r="I23" t="n">
         <v>22</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1983,31 +1530,12 @@
       <c r="I24" t="n">
         <v>22</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2045,31 +1573,12 @@
       <c r="I25" t="n">
         <v>22</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2107,31 +1616,12 @@
       <c r="I26" t="n">
         <v>22</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2169,31 +1659,12 @@
       <c r="I27" t="n">
         <v>22</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2233,31 +1704,12 @@
           <t>15/22</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2295,31 +1747,12 @@
       <c r="I29" t="n">
         <v>22</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2357,33 +1790,14 @@
       <c r="I30" t="n">
         <v>22</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Data:11/05/2022 NFE:000074348-</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Data:11/05/2022 NFE:000074348-</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
           <t>#2846# FORR 1077</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2423,31 +1837,12 @@
       <c r="I31" t="n">
         <v>22</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077170-</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2485,33 +1880,14 @@
       <c r="I32" t="n">
         <v>22</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Data:21/07/2022 NFE:000075591-</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Data:21/07/2022 NFE:000075591-</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
           <t>#2851# FRIG 1266</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2551,31 +1927,12 @@
       <c r="I33" t="n">
         <v>22</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077170-</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2613,33 +1970,14 @@
       <c r="I34" t="n">
         <v>22</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Data:20/06/2022 NFE:000075022-</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Data:20/06/2022 NFE:000075022-</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
           <t>#2850# FRIG 1224</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2679,33 +2017,14 @@
       <c r="I35" t="n">
         <v>22</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Data:21/07/2022 NFE:000075591-</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Data:21/07/2022 NFE:000075591-</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
           <t>#2851# FRIG 1266</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2745,33 +2064,14 @@
       <c r="I36" t="n">
         <v>22</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Data:20/06/2022 NFE:000075022-</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Data:20/06/2022 NFE:000075022-</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
           <t>#2850# FRIG 1224</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2811,33 +2111,14 @@
       <c r="I37" t="n">
         <v>22</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Data:21/07/2022 NFE:000075591-</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Data:21/07/2022 NFE:000075591-</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
           <t>#2851# FRIG 1266</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -2877,31 +2158,12 @@
       <c r="I38" t="n">
         <v>22</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077170-</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2939,31 +2201,12 @@
       <c r="I39" t="n">
         <v>22</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3001,33 +2244,14 @@
       <c r="I40" t="n">
         <v>22</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Data:08/07/2022 NFE:000075351-</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Data:08/07/2022 NFE:000075351-</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
           <t>#2852# FRIG 1303</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -3067,31 +2291,12 @@
       <c r="I41" t="n">
         <v>22</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3129,33 +2334,14 @@
       <c r="I42" t="n">
         <v>22</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Data:08/07/2022 NFE:000075351-</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Data:08/07/2022 NFE:000075351-</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
           <t>#2852# FRIG 1303</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -3195,31 +2381,12 @@
       <c r="I43" t="n">
         <v>22</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3257,31 +2424,12 @@
       <c r="I44" t="n">
         <v>22</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3319,33 +2467,14 @@
       <c r="I45" t="n">
         <v>22</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Data:08/07/2022 NFE:000075351-</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Data:08/07/2022 NFE:000075351-</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
           <t>#2852# FRIG 1303</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -3385,31 +2514,12 @@
       <c r="I46" t="n">
         <v>22</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3447,33 +2557,14 @@
       <c r="I47" t="n">
         <v>22</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Data:17/03/2022 NFE:000073159-</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Data:17/03/2022 NFE:000073159-</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
           <t>#2848# FRIG 1057</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -3513,33 +2604,14 @@
       <c r="I48" t="n">
         <v>22</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Data:08/07/2022 NFE:000075351-</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Data:08/07/2022 NFE:000075351-</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
           <t>#2852# FRIG 1303</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -3579,31 +2651,12 @@
       <c r="I49" t="n">
         <v>22</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076848-</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3641,31 +2694,12 @@
       <c r="I50" t="n">
         <v>22</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000076002-</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3703,31 +2737,12 @@
       <c r="I51" t="n">
         <v>22</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000076002-</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>2</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3765,31 +2780,12 @@
       <c r="I52" t="n">
         <v>22</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000076002-</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3827,31 +2823,12 @@
       <c r="I53" t="n">
         <v>22</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000076002-</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3889,31 +2866,12 @@
       <c r="I54" t="n">
         <v>22</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3951,31 +2909,12 @@
       <c r="I55" t="n">
         <v>22</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4013,31 +2952,12 @@
       <c r="I56" t="n">
         <v>22</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4075,31 +2995,12 @@
       <c r="I57" t="n">
         <v>22</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4137,31 +3038,12 @@
       <c r="I58" t="n">
         <v>22</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4199,31 +3081,12 @@
       <c r="I59" t="n">
         <v>22</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4261,31 +3124,12 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Data:31/10/2022 NFE:000077551-</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4323,31 +3167,12 @@
       <c r="I61" t="n">
         <v>22</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4385,31 +3210,12 @@
       <c r="I62" t="n">
         <v>22</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>2</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4447,33 +3253,14 @@
       <c r="I63" t="n">
         <v>22</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Data:12/01/2022 NFE:000072001-</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Data:12/01/2022 NFE:000072001-</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>2</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
           <t>#2860# PAND 1439</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4513,33 +3300,14 @@
       <c r="I64" t="n">
         <v>22</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Data:29/04/2022 NFE:000073946-</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073946-</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>3</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
           <t>#2859# PAND 1100</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4579,33 +3347,14 @@
       <c r="I65" t="n">
         <v>22</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Data:29/04/2022 NFE:000073946-</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Data:29/04/2022 NFE:000073946-</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>4</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
           <t>#2859# PAND 1100</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4645,31 +3394,12 @@
       <c r="I66" t="n">
         <v>22</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4707,33 +3437,14 @@
       <c r="I67" t="n">
         <v>22</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Data:13/05/2022 NFE:000074217-</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Data:13/05/2022 NFE:000074217-</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
           <t>#2862# PICO 1056</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4773,33 +3484,14 @@
       <c r="I68" t="n">
         <v>22</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Data:13/05/2022 NFE:000074217-</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Data:13/05/2022 NFE:000074217-</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
           <t>#2862# PICO 1056</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4839,31 +3531,12 @@
       <c r="I69" t="n">
         <v>22</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077107-</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>2</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4901,33 +3574,14 @@
       <c r="I70" t="n">
         <v>22</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Data:13/05/2022 NFE:000074217-</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Data:13/05/2022 NFE:000074217-</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
           <t>#2862# PICO 1056</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -4967,31 +3621,12 @@
       <c r="I71" t="n">
         <v>22</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077107-</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>4</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5029,33 +3664,14 @@
       <c r="I72" t="n">
         <v>22</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Data:13/05/2022 NFE:000074217-</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Data:13/05/2022 NFE:000074217-</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
           <t>#2862# PICO 1056</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -5095,31 +3711,12 @@
       <c r="I73" t="n">
         <v>22</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077107-</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>2</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5157,31 +3754,12 @@
       <c r="I74" t="n">
         <v>22</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077107-</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5219,31 +3797,12 @@
       <c r="I75" t="n">
         <v>3</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5281,31 +3840,12 @@
       <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Data:08/11/2022 NFE:000077751-</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5343,31 +3883,12 @@
       <c r="I77" t="n">
         <v>3</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Data:08/11/2022 NFE:000077789-</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5405,31 +3926,12 @@
       <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5467,31 +3969,12 @@
       <c r="I79" t="n">
         <v>3</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5531,31 +4014,12 @@
       <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Data:16/11/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5593,31 +4057,12 @@
       <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Data:03/11/2022 NFE:000077639-</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5655,31 +4100,12 @@
       <c r="I82" t="n">
         <v>3</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>2</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5717,31 +4143,12 @@
       <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5779,31 +4186,12 @@
       <c r="I84" t="n">
         <v>3</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5841,31 +4229,12 @@
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Data:03/10/2022 NFE:000076921-</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5903,31 +4272,12 @@
       <c r="I86" t="n">
         <v>3</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>2</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5965,31 +4315,12 @@
       <c r="I87" t="n">
         <v>3</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>4</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6027,31 +4358,12 @@
       <c r="I88" t="n">
         <v>3</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Data:03/10/2022 NFE:000076921-</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6089,31 +4401,12 @@
       <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Data:03/10/2022 NFE:000076921-</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>2</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6151,31 +4444,12 @@
       <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>2</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6213,31 +4487,12 @@
       <c r="I91" t="n">
         <v>3</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>3</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6275,31 +4530,12 @@
       <c r="I92" t="n">
         <v>3</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Data:03/10/2022 NFE:000076921-</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6337,31 +4573,12 @@
       <c r="I93" t="n">
         <v>3</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Data:03/10/2022 NFE:000076921-</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>2</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6399,31 +4616,12 @@
       <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6461,31 +4659,12 @@
       <c r="I95" t="n">
         <v>3</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>2</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6523,31 +4702,12 @@
       <c r="I96" t="n">
         <v>22</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>2</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6585,31 +4745,12 @@
       <c r="I97" t="n">
         <v>22</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>2</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6647,33 +4788,14 @@
       <c r="I98" t="n">
         <v>22</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Data:15/06/2022 NFE:000074964-</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Data:15/06/2022 NFE:000074964-</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
           <t>#2870# ZIMM 1318</t>
-        </is>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -6713,31 +4835,12 @@
       <c r="I99" t="n">
         <v>22</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Data:14/10/2022 NFE:000077270-</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6775,33 +4878,14 @@
       <c r="I100" t="n">
         <v>22</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Data:15/06/2022 NFE:000074964-</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Data:15/06/2022 NFE:000074964-</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
           <t>#2870# ZIMM 1318</t>
-        </is>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -6841,31 +4925,12 @@
       <c r="I101" t="n">
         <v>22</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Data:04/11/2022 NFE:000077747-</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6903,33 +4968,14 @@
       <c r="I102" t="n">
         <v>22</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Data:19/04/2022 NFE:000073775-</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
           <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -6969,31 +5015,12 @@
       <c r="I103" t="n">
         <v>22</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076847-</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>3</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7031,31 +5058,12 @@
       <c r="I104" t="n">
         <v>22</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Data:05/10/2022 NFE:000076984-</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7093,31 +5101,12 @@
       <c r="I105" t="n">
         <v>22</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7155,31 +5144,12 @@
       <c r="I106" t="n">
         <v>22</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7217,31 +5187,12 @@
       <c r="I107" t="n">
         <v>22</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7279,31 +5230,12 @@
       <c r="I108" t="n">
         <v>22</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7341,33 +5273,14 @@
       <c r="I109" t="n">
         <v>22</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Data:12/01/2022 NFE:000072001-</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Data:12/01/2022 NFE:000072001-</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
           <t>#2860# PAND 1439</t>
-        </is>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -7407,31 +5320,12 @@
       <c r="I110" t="n">
         <v>22</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>2</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7469,33 +5363,14 @@
       <c r="I111" t="n">
         <v>22</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Data:21/07/2022 NFE:000075693-</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Data:21/07/2022 NFE:000075693-</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
           <t>#2860# PAND 1439</t>
-        </is>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -7535,31 +5410,12 @@
       <c r="I112" t="n">
         <v>22</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>2</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7597,31 +5453,12 @@
       <c r="I113" t="n">
         <v>3</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7659,31 +5496,12 @@
       <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>2</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7721,31 +5539,12 @@
       <c r="I115" t="n">
         <v>3</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>2</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7783,31 +5582,12 @@
       <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Data:26/10/2022 NFE:000077486-</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7845,31 +5625,12 @@
       <c r="I117" t="n">
         <v>22</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>3</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7907,31 +5668,12 @@
       <c r="I118" t="n">
         <v>22</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>4</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7969,33 +5711,14 @@
       <c r="I119" t="n">
         <v>22</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Data:18/05/2022 NFE:000074343-</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Data:18/05/2022 NFE:000074343-</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
           <t>#2839# BLAC 0003</t>
-        </is>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -8035,31 +5758,12 @@
       <c r="I120" t="n">
         <v>22</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Data:28/09/2022 NFE:000076847-</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>2</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8097,31 +5801,12 @@
       <c r="I121" t="n">
         <v>22</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>Data:04/11/2022 NFE:000077747-</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>2</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>0</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>0</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8159,31 +5844,12 @@
       <c r="I122" t="n">
         <v>22</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>0</v>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8221,31 +5887,12 @@
       <c r="I123" t="n">
         <v>22</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:000077234-</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="n">
-        <v>0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>0</v>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8283,33 +5930,14 @@
       <c r="I124" t="n">
         <v>22</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Data:19/04/2022 NFE:000073775-</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
           <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>0</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -8349,33 +5977,14 @@
       <c r="I125" t="n">
         <v>22</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Data:23/05/2022 NFE:000074534-</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Data:23/05/2022 NFE:000074534-</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
           <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O125" t="n">
-        <v>0</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -8415,31 +6024,12 @@
       <c r="I126" t="n">
         <v>22</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>Data:12/08/2022 NFE:000076002-</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="n">
-        <v>0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8477,31 +6067,12 @@
       <c r="I127" t="n">
         <v>22</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077177-</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8539,31 +6110,12 @@
       <c r="I128" t="n">
         <v>22</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077177-</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>2</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8601,31 +6153,12 @@
       <c r="I129" t="n">
         <v>22</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>Data:14/09/2022 NFE:000076643-</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8663,31 +6196,12 @@
       <c r="I130" t="n">
         <v>22</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>Data:23/09/2022 NFE:000076764-</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>2</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8725,33 +6239,14 @@
       <c r="I131" t="n">
         <v>22</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Data:13/05/2022 NFE:000074217-</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Data:13/05/2022 NFE:000074217-</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
           <t>#2862# PICO 1056</t>
-        </is>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -8791,31 +6286,12 @@
       <c r="I132" t="n">
         <v>22</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Data:10/10/2022 NFE:000077107-</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>3</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>0</v>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8853,31 +6329,12 @@
       <c r="I133" t="n">
         <v>3</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>Data:09/11/2022 NFE:000077788-</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8917,31 +6374,12 @@
       <c r="I134" t="n">
         <v>3</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>Data:16/11/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="n">
-        <v>0</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8979,31 +6417,12 @@
       <c r="I135" t="n">
         <v>3</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>Data:12/09/2022 NFE:000076505-</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9041,31 +6460,12 @@
       <c r="I136" t="n">
         <v>3</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>Data:26/10/2022 NFE:000077486-</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="n">
-        <v>0</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>0</v>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9103,31 +6503,12 @@
       <c r="I137" t="n">
         <v>3</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>Data:26/10/2022 NFE:000077486-</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="n">
-        <v>0</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9165,31 +6546,12 @@
       <c r="I138" t="n">
         <v>22</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>2</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="n">
-        <v>0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9227,31 +6589,12 @@
       <c r="I139" t="n">
         <v>22</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Data:13/10/2022 NFE:000077184-</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>2</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="n">
-        <v>0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>0</v>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9287,28 +6630,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="n">
         <v>11</v>
-      </c>
-      <c r="N140" t="n">
-        <v>11</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1</v>
-      </c>
-      <c r="P140" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>11</v>
-      </c>
-      <c r="R140" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -9347,33 +6669,14 @@
       <c r="I141" t="n">
         <v>22</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Data:08/11/2021 NFE:000070702-</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Data:08/11/2021 NFE:000070702-</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
           <t>#2757# FRIS 1521</t>
-        </is>
-      </c>
-      <c r="O141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>0</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -9413,33 +6716,14 @@
       <c r="I142" t="n">
         <v>22</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Data:19/04/2022 NFE:000073775-</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Data:19/04/2022 NFE:000073775-</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
           <t>#2853# FRIS 1201</t>
-        </is>
-      </c>
-      <c r="O142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
         </is>
       </c>
     </row>
@@ -9479,31 +6763,12 @@
       <c r="I143" t="n">
         <v>3</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>3</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9545,31 +6810,12 @@
           <t>G1</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>4</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9607,31 +6853,12 @@
       <c r="I145" t="n">
         <v>3</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>3</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>0</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9673,31 +6900,12 @@
           <t>G1</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>4</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9735,31 +6943,12 @@
       <c r="I147" t="n">
         <v>3</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>Data:12/06/2020 NFE:000061560-</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>4</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9801,31 +6990,12 @@
           <t>G1</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>Data:17/10/2022 NFE:-</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>4</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="n">
-        <v>0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9863,31 +7033,12 @@
       <c r="I149" t="n">
         <v>3</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>Data:11/06/2020 NFE:000061560-</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>4</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="n">
-        <v>0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>1146-SUDAMBEEF</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
